--- a/cpmap/Book1.xlsx
+++ b/cpmap/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtq23\Desktop\cpmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B371EB1-D371-4F6D-9B91-C290094333B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6585FF-4B9D-48D7-8E65-9DD7A97B0EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4432B5A8-59ED-4A8F-B9CA-C0A3991E68CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Head Office</t>
   </si>
@@ -71,12 +71,18 @@
   <si>
     <t>Zone 7</t>
   </si>
+  <si>
+    <t>Created by: Thien Quang VU</t>
+  </si>
+  <si>
+    <t>(Country AM Shift)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +105,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -444,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,34 +493,61 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,89 +556,65 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C96EE3-1777-457F-9872-8715C1280D49}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -941,7 +957,7 @@
     <col min="13" max="13" width="3.28515625" style="2" customWidth="1"/>
     <col min="14" max="14" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" style="22" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="29" customWidth="1"/>
     <col min="17" max="17" width="5" style="2" customWidth="1"/>
     <col min="18" max="19" width="3.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="4" style="2" customWidth="1"/>
@@ -950,39 +966,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38">
+      <c r="A1" s="24">
         <v>189</v>
       </c>
-      <c r="B1" s="38">
+      <c r="B1" s="24">
         <v>176</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="24">
         <v>76</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38">
+      <c r="D1" s="35"/>
+      <c r="E1" s="24">
         <v>121</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="24">
         <v>81</v>
       </c>
-      <c r="G1" s="35">
+      <c r="G1" s="26">
         <v>88</v>
       </c>
-      <c r="H1" s="35">
+      <c r="H1" s="26">
         <v>188</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="35">
+      <c r="I1" s="39"/>
+      <c r="J1" s="26">
         <v>190</v>
       </c>
-      <c r="K1" s="35">
+      <c r="K1" s="26">
         <v>87</v>
       </c>
-      <c r="L1" s="35">
+      <c r="L1" s="26">
         <v>348</v>
       </c>
-      <c r="M1" s="42"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="3">
         <v>183</v>
       </c>
@@ -997,19 +1013,19 @@
       <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="42"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="3">
         <v>187</v>
       </c>
@@ -1020,24 +1036,24 @@
         <v>67</v>
       </c>
       <c r="R2" s="4"/>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="45"/>
-      <c r="U2" s="46"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="40"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="3">
         <v>123</v>
       </c>
@@ -1048,26 +1064,26 @@
         <v>66</v>
       </c>
       <c r="R3" s="4"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="49"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="20"/>
       <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34">
+      <c r="B4" s="28">
         <v>84</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="3">
         <v>124</v>
       </c>
@@ -1078,26 +1094,26 @@
         <v>167</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="49"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
       <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
+      <c r="B5" s="28">
         <v>831</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="3">
         <v>338</v>
       </c>
@@ -1108,40 +1124,40 @@
         <v>346</v>
       </c>
       <c r="R5" s="4"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="49"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
+      <c r="B6" s="28">
         <v>83</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="34">
+      <c r="C6" s="28"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="28">
         <v>77</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="28">
         <v>186</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="28">
         <v>78</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="34">
         <v>16</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="37">
+      <c r="I6" s="38"/>
+      <c r="J6" s="34">
         <v>80</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="34">
         <v>180</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="34">
         <v>137</v>
       </c>
-      <c r="M6" s="32"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="3">
         <v>339</v>
       </c>
@@ -1152,24 +1168,24 @@
         <v>162</v>
       </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="20"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="3">
         <v>15</v>
       </c>
@@ -1180,40 +1196,40 @@
         <v>64</v>
       </c>
       <c r="R7" s="4"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="49"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
       <c r="V7" s="4"/>
     </row>
     <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
+      <c r="B8" s="28">
         <v>75</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="34">
+      <c r="C8" s="28"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="28">
         <v>72</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="28">
         <v>96</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="28">
         <v>173</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="28">
         <v>73</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="28">
         <v>182</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="28">
         <v>178</v>
       </c>
-      <c r="M8" s="32"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="3">
         <v>13</v>
       </c>
@@ -1224,26 +1240,26 @@
         <v>164</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="49"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="4"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34">
+      <c r="B9" s="28">
         <v>175</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="32"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="3">
         <v>184</v>
       </c>
@@ -1254,26 +1270,26 @@
         <v>134</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="52"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="23"/>
       <c r="V9" s="4"/>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
+      <c r="B10" s="28">
         <v>177</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="3">
         <v>106</v>
       </c>
@@ -1290,16 +1306,16 @@
       <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="41"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
       <c r="N11" s="3">
         <v>85</v>
       </c>
@@ -1314,32 +1330,32 @@
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="D12" s="38">
+      <c r="D12" s="24">
         <v>179</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="24">
         <v>197</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="24">
         <v>97</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="24">
         <v>171</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="24">
         <v>107</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="38">
+      <c r="I12" s="35"/>
+      <c r="J12" s="24">
         <v>71</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="24">
         <v>74</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="24">
         <v>172</v>
       </c>
-      <c r="M12" s="32"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="3">
         <v>181</v>
       </c>
@@ -1349,23 +1365,23 @@
       <c r="Q12" s="6">
         <v>114</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="30">
         <v>31</v>
       </c>
-      <c r="S12" s="26"/>
-      <c r="T12" s="32"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="37"/>
     </row>
     <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="32"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="3">
         <v>185</v>
       </c>
@@ -1375,15 +1391,15 @@
       <c r="Q13" s="6">
         <v>364</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="33">
+      <c r="S13" s="31"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="42">
         <v>271</v>
       </c>
-      <c r="V13" s="33"/>
+      <c r="V13" s="42"/>
     </row>
     <row r="14" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -1408,15 +1424,15 @@
       <c r="Q14" s="6">
         <v>33</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="30">
         <v>314</v>
       </c>
-      <c r="S14" s="26"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="25" t="s">
+      <c r="S14" s="31"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="V14" s="26"/>
+      <c r="V14" s="31"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -1439,15 +1455,15 @@
       <c r="Q15" s="6">
         <v>32</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15" s="30">
         <v>372</v>
       </c>
-      <c r="S15" s="26"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="33">
+      <c r="S15" s="31"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="42">
         <v>119</v>
       </c>
-      <c r="V15" s="33"/>
+      <c r="V15" s="42"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -1470,34 +1486,34 @@
       <c r="Q16" s="6">
         <v>146</v>
       </c>
-      <c r="R16" s="25">
+      <c r="R16" s="30">
         <v>302</v>
       </c>
-      <c r="S16" s="26"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="33">
+      <c r="S16" s="31"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="42">
         <v>376</v>
       </c>
-      <c r="V16" s="33"/>
+      <c r="V16" s="42"/>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="13" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1507,28 +1523,28 @@
       <c r="Q17" s="5">
         <v>111</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17" s="30">
         <v>377</v>
       </c>
-      <c r="S17" s="26"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="33">
+      <c r="S17" s="31"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="42">
         <v>30</v>
       </c>
-      <c r="V17" s="33"/>
+      <c r="V17" s="42"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1538,28 +1554,28 @@
       <c r="Q18" s="5">
         <v>68</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="30">
         <v>193</v>
       </c>
-      <c r="S18" s="26"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="33">
+      <c r="S18" s="31"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="42">
         <v>291</v>
       </c>
-      <c r="V18" s="33"/>
+      <c r="V18" s="42"/>
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1569,15 +1585,15 @@
       <c r="Q19" s="5">
         <v>65</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19" s="30">
         <v>362</v>
       </c>
-      <c r="S19" s="26"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="33">
+      <c r="S19" s="31"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="42">
         <v>29</v>
       </c>
-      <c r="V19" s="33"/>
+      <c r="V19" s="42"/>
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -1600,15 +1616,15 @@
       <c r="Q20" s="5">
         <v>70</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="30">
         <v>105</v>
       </c>
-      <c r="S20" s="26"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="33">
+      <c r="S20" s="31"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="42">
         <v>130</v>
       </c>
-      <c r="V20" s="33"/>
+      <c r="V20" s="42"/>
     </row>
     <row r="21" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -1631,15 +1647,15 @@
       <c r="Q21" s="5">
         <v>63</v>
       </c>
-      <c r="R21" s="25">
+      <c r="R21" s="30">
         <v>194</v>
       </c>
-      <c r="S21" s="26"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="33">
+      <c r="S21" s="31"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="42">
         <v>26</v>
       </c>
-      <c r="V21" s="33"/>
+      <c r="V21" s="42"/>
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -1647,11 +1663,11 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1664,15 +1680,15 @@
       <c r="Q22" s="5">
         <v>62</v>
       </c>
-      <c r="R22" s="25">
+      <c r="R22" s="30">
         <v>133</v>
       </c>
-      <c r="S22" s="26"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="33">
+      <c r="S22" s="31"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="42">
         <v>25</v>
       </c>
-      <c r="V22" s="33"/>
+      <c r="V22" s="42"/>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -1680,9 +1696,9 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -1695,15 +1711,15 @@
       <c r="Q23" s="8">
         <v>159</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="32">
         <v>381</v>
       </c>
-      <c r="S23" s="24"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="33">
+      <c r="S23" s="33"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="42">
         <v>195</v>
       </c>
-      <c r="V23" s="33"/>
+      <c r="V23" s="42"/>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
@@ -1711,9 +1727,9 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -1726,15 +1742,15 @@
       <c r="Q24" s="8">
         <v>591</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R24" s="32">
         <v>144</v>
       </c>
-      <c r="S24" s="24"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="29">
+      <c r="S24" s="33"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="41">
         <v>122</v>
       </c>
-      <c r="V24" s="29"/>
+      <c r="V24" s="41"/>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -1742,11 +1758,11 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -1759,15 +1775,15 @@
       <c r="Q25" s="8">
         <v>59</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="32">
         <v>138</v>
       </c>
-      <c r="S25" s="24"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="29">
+      <c r="S25" s="33"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="41">
         <v>361</v>
       </c>
-      <c r="V25" s="29"/>
+      <c r="V25" s="41"/>
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -1775,9 +1791,9 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1790,15 +1806,15 @@
       <c r="Q26" s="8">
         <v>155</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="32">
         <v>371</v>
       </c>
-      <c r="S26" s="24"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="29">
+      <c r="S26" s="33"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="41">
         <v>36</v>
       </c>
-      <c r="V26" s="29"/>
+      <c r="V26" s="41"/>
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
@@ -1806,9 +1822,9 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -1819,11 +1835,11 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="29">
+      <c r="T27" s="37"/>
+      <c r="U27" s="41">
         <v>34</v>
       </c>
-      <c r="V27" s="29"/>
+      <c r="V27" s="41"/>
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1831,11 +1847,11 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -1848,15 +1864,15 @@
       <c r="Q28" s="8">
         <v>127</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="32">
         <v>38</v>
       </c>
-      <c r="S28" s="24"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="29">
+      <c r="S28" s="33"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="41">
         <v>35</v>
       </c>
-      <c r="V28" s="29"/>
+      <c r="V28" s="41"/>
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -1864,9 +1880,9 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -1879,15 +1895,15 @@
       <c r="Q29" s="8">
         <v>55</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="32">
         <v>37</v>
       </c>
-      <c r="S29" s="24"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="29">
+      <c r="S29" s="33"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="41">
         <v>351</v>
       </c>
-      <c r="V29" s="29"/>
+      <c r="V29" s="41"/>
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
@@ -1895,9 +1911,9 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -1910,15 +1926,15 @@
       <c r="Q30" s="8">
         <v>115</v>
       </c>
-      <c r="R30" s="23">
+      <c r="R30" s="32">
         <v>154</v>
       </c>
-      <c r="S30" s="24"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="29">
+      <c r="S30" s="33"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="41">
         <v>347</v>
       </c>
-      <c r="V30" s="29"/>
+      <c r="V30" s="41"/>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -1926,11 +1942,11 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -1943,15 +1959,15 @@
       <c r="Q31" s="8">
         <v>54</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="32">
         <v>45</v>
       </c>
-      <c r="S31" s="24"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="29">
+      <c r="S31" s="33"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="41">
         <v>147</v>
       </c>
-      <c r="V31" s="29"/>
+      <c r="V31" s="41"/>
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -1959,9 +1975,9 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -1974,15 +1990,15 @@
       <c r="Q32" s="8">
         <v>47</v>
       </c>
-      <c r="R32" s="23">
+      <c r="R32" s="32">
         <v>43</v>
       </c>
-      <c r="S32" s="24"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="29">
+      <c r="S32" s="33"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="41">
         <v>345</v>
       </c>
-      <c r="V32" s="29"/>
+      <c r="V32" s="41"/>
     </row>
     <row r="33" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -1990,9 +2006,9 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
@@ -2005,15 +2021,15 @@
       <c r="Q33" s="8">
         <v>46</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="32">
         <v>42</v>
       </c>
-      <c r="S33" s="24"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="29">
+      <c r="S33" s="33"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="41">
         <v>145</v>
       </c>
-      <c r="V33" s="29"/>
+      <c r="V33" s="41"/>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -2036,15 +2052,15 @@
       <c r="Q34" s="8">
         <v>41</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="32">
         <v>142</v>
       </c>
-      <c r="S34" s="24"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="29">
+      <c r="S34" s="33"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="41">
         <v>149</v>
       </c>
-      <c r="V34" s="29"/>
+      <c r="V34" s="41"/>
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -2067,28 +2083,30 @@
       <c r="Q35" s="8">
         <v>49</v>
       </c>
-      <c r="R35" s="23">
+      <c r="R35" s="32">
         <v>156</v>
       </c>
-      <c r="S35" s="24"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="29">
+      <c r="S35" s="33"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="41">
         <v>139</v>
       </c>
-      <c r="V35" s="29"/>
+      <c r="V35" s="41"/>
     </row>
     <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+      <c r="C36" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="7"/>
@@ -2098,28 +2116,30 @@
       <c r="Q36" s="8">
         <v>491</v>
       </c>
-      <c r="R36" s="23">
+      <c r="R36" s="32">
         <v>103</v>
       </c>
-      <c r="S36" s="24"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="23" t="s">
+      <c r="S36" s="33"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="V36" s="24"/>
+      <c r="V36" s="33"/>
     </row>
     <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="C37" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -2129,15 +2149,15 @@
       <c r="Q37" s="12">
         <v>12</v>
       </c>
-      <c r="R37" s="23">
+      <c r="R37" s="32">
         <v>157</v>
       </c>
-      <c r="S37" s="24"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="30">
+      <c r="S37" s="33"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="40">
         <v>9</v>
       </c>
-      <c r="V37" s="30"/>
+      <c r="V37" s="40"/>
     </row>
     <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -2160,15 +2180,15 @@
       <c r="Q38" s="12">
         <v>17</v>
       </c>
-      <c r="R38" s="23">
+      <c r="R38" s="32">
         <v>44</v>
       </c>
-      <c r="S38" s="24"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="30">
+      <c r="S38" s="33"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="40">
         <v>140</v>
       </c>
-      <c r="V38" s="30"/>
+      <c r="V38" s="40"/>
     </row>
     <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
@@ -2191,15 +2211,15 @@
       <c r="Q39" s="12">
         <v>93</v>
       </c>
-      <c r="R39" s="27">
+      <c r="R39" s="13">
         <v>141</v>
       </c>
-      <c r="S39" s="28"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="30">
+      <c r="S39" s="14"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="40">
         <v>356</v>
       </c>
-      <c r="V39" s="30"/>
+      <c r="V39" s="40"/>
     </row>
     <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -2222,15 +2242,15 @@
       <c r="Q40" s="12">
         <v>14</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R40" s="13">
         <v>10</v>
       </c>
-      <c r="S40" s="28"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="30">
+      <c r="S40" s="14"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="40">
         <v>357</v>
       </c>
-      <c r="V40" s="30"/>
+      <c r="V40" s="40"/>
     </row>
     <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -2253,15 +2273,15 @@
       <c r="Q41" s="12">
         <v>11</v>
       </c>
-      <c r="R41" s="27">
+      <c r="R41" s="13">
         <v>136</v>
       </c>
-      <c r="S41" s="28"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="27" t="s">
+      <c r="S41" s="14"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="28"/>
+      <c r="V41" s="14"/>
     </row>
     <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
@@ -2284,15 +2304,15 @@
       <c r="Q42" s="12">
         <v>192</v>
       </c>
-      <c r="R42" s="27">
+      <c r="R42" s="13">
         <v>196</v>
       </c>
-      <c r="S42" s="28"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="30">
+      <c r="S42" s="14"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="40">
         <v>152</v>
       </c>
-      <c r="V42" s="30"/>
+      <c r="V42" s="40"/>
     </row>
     <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
@@ -2315,15 +2335,15 @@
       <c r="Q43" s="12">
         <v>160</v>
       </c>
-      <c r="R43" s="27">
+      <c r="R43" s="13">
         <v>3</v>
       </c>
-      <c r="S43" s="28"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="30">
+      <c r="S43" s="14"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="40">
         <v>198</v>
       </c>
-      <c r="V43" s="30"/>
+      <c r="V43" s="40"/>
     </row>
     <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
@@ -2346,15 +2366,15 @@
       <c r="Q44" s="12">
         <v>602</v>
       </c>
-      <c r="R44" s="27">
+      <c r="R44" s="13">
         <v>354</v>
       </c>
-      <c r="S44" s="28"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="30">
+      <c r="S44" s="14"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="40">
         <v>98</v>
       </c>
-      <c r="V44" s="30"/>
+      <c r="V44" s="40"/>
     </row>
     <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
@@ -2377,15 +2397,15 @@
       <c r="Q45" s="12">
         <v>6</v>
       </c>
-      <c r="R45" s="27">
+      <c r="R45" s="13">
         <v>355</v>
       </c>
-      <c r="S45" s="28"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="30">
+      <c r="S45" s="14"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="40">
         <v>116</v>
       </c>
-      <c r="V45" s="30"/>
+      <c r="V45" s="40"/>
     </row>
     <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
@@ -2408,15 +2428,15 @@
       <c r="Q46" s="12">
         <v>861</v>
       </c>
-      <c r="R46" s="27">
+      <c r="R46" s="13">
         <v>126</v>
       </c>
-      <c r="S46" s="28"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="30">
+      <c r="S46" s="14"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="40">
         <v>2</v>
       </c>
-      <c r="V46" s="30"/>
+      <c r="V46" s="40"/>
     </row>
     <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
@@ -2439,15 +2459,15 @@
       <c r="Q47" s="12">
         <v>86</v>
       </c>
-      <c r="R47" s="27">
+      <c r="R47" s="13">
         <v>301</v>
       </c>
-      <c r="S47" s="28"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="30">
+      <c r="S47" s="14"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="40">
         <v>99</v>
       </c>
-      <c r="V47" s="30"/>
+      <c r="V47" s="40"/>
     </row>
     <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
@@ -2470,15 +2490,15 @@
       <c r="Q48" s="12">
         <v>7</v>
       </c>
-      <c r="R48" s="27">
+      <c r="R48" s="13">
         <v>117</v>
       </c>
-      <c r="S48" s="28"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="30">
+      <c r="S48" s="14"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="40">
         <v>191</v>
       </c>
-      <c r="V48" s="30"/>
+      <c r="V48" s="40"/>
     </row>
     <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -2501,42 +2521,155 @@
       <c r="Q49" s="12">
         <v>8</v>
       </c>
-      <c r="R49" s="27">
+      <c r="R49" s="13">
         <v>353</v>
       </c>
-      <c r="S49" s="28"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="30">
+      <c r="S49" s="14"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="40">
         <v>109</v>
       </c>
-      <c r="V49" s="30"/>
+      <c r="V49" s="40"/>
     </row>
     <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="Q50" s="12">
         <v>4420</v>
       </c>
-      <c r="R50" s="27">
+      <c r="R50" s="13">
         <v>4</v>
       </c>
-      <c r="S50" s="28"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="30">
+      <c r="S50" s="14"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="40">
         <v>101</v>
       </c>
-      <c r="V50" s="30"/>
+      <c r="V50" s="40"/>
     </row>
     <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="27" t="s">
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="V51" s="28"/>
+      <c r="V51" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="137">
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H19"/>
+    <mergeCell ref="I17:K19"/>
+    <mergeCell ref="F22:H24"/>
+    <mergeCell ref="F25:H27"/>
+    <mergeCell ref="F28:H30"/>
+    <mergeCell ref="F31:H33"/>
+    <mergeCell ref="P1:P1048576"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T12:T51"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="D1:D11"/>
+    <mergeCell ref="E3:M5"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="U51:V51"/>
     <mergeCell ref="S2:U9"/>
     <mergeCell ref="A1:A2"/>
@@ -2561,117 +2694,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="D1:D11"/>
-    <mergeCell ref="E3:M5"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="M6:M13"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T12:T51"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H19"/>
-    <mergeCell ref="I17:K19"/>
-    <mergeCell ref="F22:H24"/>
-    <mergeCell ref="F25:H27"/>
-    <mergeCell ref="F28:H30"/>
-    <mergeCell ref="F31:H33"/>
-    <mergeCell ref="P1:P1048576"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R49:S49"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
